--- a/Results/Categorization/20.xlsx
+++ b/Results/Categorization/20.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2419" uniqueCount="779">
   <si>
     <t>id</t>
   </si>
@@ -1933,22 +1933,22 @@
     <t>AMBIENCE|AMBIENCE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>VALUE|FOOD|FOOD|VALUE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|VALUE|VALUE</t>
-  </si>
-  <si>
     <t>VALUE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|VALUE|VALUE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|VALUE|VALUE|FOOD|SERVICE</t>
+    <t>VALUE|AMBIENCE|FOOD|VALUE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|VALUE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|VALUE|VALUE</t>
@@ -1957,13 +1957,16 @@
     <t>AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>VALUE|VALUE|FOOD|SERVICE</t>
+    <t>AMBIENCE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|VALUE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>FOOD|AMBIENCE|FOOD</t>
   </si>
   <si>
-    <t>VALUE|VALUE|FOOD|SERVICE|SERVICE</t>
+    <t>SERVICE|SERVICE|FOOD|SERVICE|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|FOOD|FOOD|SERVICE</t>
@@ -1975,52 +1978,43 @@
     <t>VALUE|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|FOOD</t>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>VALUE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|VALUE|FOOD</t>
   </si>
   <si>
     <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|VALUE|FOOD|VALUE</t>
+    <t>FOOD|SERVICE|FOOD|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|FOOD|VALUE|FOOD|SERVICE</t>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
   </si>
   <si>
     <t>FOOD|FOOD|FOOD|VALUE|FOOD|SERVICE</t>
   </si>
   <si>
-    <t>VALUE|VALUE|VALUE|SERVICE</t>
-  </si>
-  <si>
     <t>FOOD|VALUE|FOOD|FOOD</t>
   </si>
   <si>
-    <t>AMBIENCE|VALUE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|VALUE|SERVICE</t>
-  </si>
-  <si>
     <t>FOOD|VALUE|FOOD</t>
   </si>
   <si>
-    <t>SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>VALUE|VALUE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|AMBIENCE</t>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>price|place</t>
@@ -2751,10 +2745,10 @@
         <v>584</v>
       </c>
       <c r="E2" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F2" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2774,7 +2768,7 @@
         <v>622</v>
       </c>
       <c r="F3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2794,7 +2788,7 @@
         <v>622</v>
       </c>
       <c r="F4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2814,7 +2808,7 @@
         <v>622</v>
       </c>
       <c r="F5" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2834,7 +2828,7 @@
         <v>622</v>
       </c>
       <c r="F6" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2854,7 +2848,7 @@
         <v>622</v>
       </c>
       <c r="F7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2874,7 +2868,7 @@
         <v>622</v>
       </c>
       <c r="F8" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2894,7 +2888,7 @@
         <v>622</v>
       </c>
       <c r="F9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2914,7 +2908,7 @@
         <v>622</v>
       </c>
       <c r="F10" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2934,7 +2928,7 @@
         <v>622</v>
       </c>
       <c r="F11" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2954,7 +2948,7 @@
         <v>622</v>
       </c>
       <c r="F12" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2974,7 +2968,7 @@
         <v>622</v>
       </c>
       <c r="F13" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2994,7 +2988,7 @@
         <v>622</v>
       </c>
       <c r="F14" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3014,7 +3008,7 @@
         <v>622</v>
       </c>
       <c r="F15" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3034,7 +3028,7 @@
         <v>622</v>
       </c>
       <c r="F16" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3054,7 +3048,7 @@
         <v>622</v>
       </c>
       <c r="F17" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3074,7 +3068,7 @@
         <v>622</v>
       </c>
       <c r="F18" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3091,10 +3085,10 @@
         <v>585</v>
       </c>
       <c r="E19" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F19" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3111,10 +3105,10 @@
         <v>585</v>
       </c>
       <c r="E20" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F20" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3131,10 +3125,10 @@
         <v>585</v>
       </c>
       <c r="E21" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F21" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3151,10 +3145,10 @@
         <v>585</v>
       </c>
       <c r="E22" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F22" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3171,10 +3165,10 @@
         <v>585</v>
       </c>
       <c r="E23" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F23" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3191,10 +3185,10 @@
         <v>585</v>
       </c>
       <c r="E24" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F24" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3211,10 +3205,10 @@
         <v>585</v>
       </c>
       <c r="E25" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F25" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3231,10 +3225,10 @@
         <v>585</v>
       </c>
       <c r="E26" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F26" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3251,10 +3245,10 @@
         <v>585</v>
       </c>
       <c r="E27" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F27" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3271,10 +3265,10 @@
         <v>585</v>
       </c>
       <c r="E28" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F28" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3291,10 +3285,10 @@
         <v>585</v>
       </c>
       <c r="E29" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F29" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3311,10 +3305,10 @@
         <v>585</v>
       </c>
       <c r="E30" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F30" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3331,10 +3325,10 @@
         <v>585</v>
       </c>
       <c r="E31" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F31" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3351,10 +3345,10 @@
         <v>585</v>
       </c>
       <c r="E32" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F32" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3371,10 +3365,10 @@
         <v>585</v>
       </c>
       <c r="E33" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F33" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3394,7 +3388,7 @@
         <v>592</v>
       </c>
       <c r="F34" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3411,10 +3405,10 @@
         <v>585</v>
       </c>
       <c r="E35" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="F35" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3431,10 +3425,10 @@
         <v>587</v>
       </c>
       <c r="E36" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F36" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3451,10 +3445,10 @@
         <v>588</v>
       </c>
       <c r="E37" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F37" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3474,7 +3468,7 @@
         <v>610</v>
       </c>
       <c r="F38" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3491,10 +3485,10 @@
         <v>587</v>
       </c>
       <c r="E39" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F39" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3511,10 +3505,10 @@
         <v>588</v>
       </c>
       <c r="E40" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F40" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3534,7 +3528,7 @@
         <v>610</v>
       </c>
       <c r="F41" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3551,10 +3545,10 @@
         <v>587</v>
       </c>
       <c r="E42" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F42" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3571,10 +3565,10 @@
         <v>588</v>
       </c>
       <c r="E43" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F43" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3594,7 +3588,7 @@
         <v>610</v>
       </c>
       <c r="F44" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3611,10 +3605,10 @@
         <v>587</v>
       </c>
       <c r="E45" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F45" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3631,10 +3625,10 @@
         <v>588</v>
       </c>
       <c r="E46" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F46" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3654,7 +3648,7 @@
         <v>610</v>
       </c>
       <c r="F47" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3671,10 +3665,10 @@
         <v>587</v>
       </c>
       <c r="E48" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F48" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3691,10 +3685,10 @@
         <v>588</v>
       </c>
       <c r="E49" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F49" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3714,7 +3708,7 @@
         <v>610</v>
       </c>
       <c r="F50" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3731,10 +3725,10 @@
         <v>587</v>
       </c>
       <c r="E51" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F51" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3751,10 +3745,10 @@
         <v>588</v>
       </c>
       <c r="E52" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F52" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3774,7 +3768,7 @@
         <v>610</v>
       </c>
       <c r="F53" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3791,10 +3785,10 @@
         <v>587</v>
       </c>
       <c r="E54" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F54" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3811,10 +3805,10 @@
         <v>588</v>
       </c>
       <c r="E55" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F55" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3834,7 +3828,7 @@
         <v>610</v>
       </c>
       <c r="F56" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3851,10 +3845,10 @@
         <v>587</v>
       </c>
       <c r="E57" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F57" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3871,10 +3865,10 @@
         <v>588</v>
       </c>
       <c r="E58" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F58" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3894,7 +3888,7 @@
         <v>610</v>
       </c>
       <c r="F59" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3911,10 +3905,10 @@
         <v>587</v>
       </c>
       <c r="E60" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F60" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3931,10 +3925,10 @@
         <v>588</v>
       </c>
       <c r="E61" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F61" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3954,7 +3948,7 @@
         <v>610</v>
       </c>
       <c r="F62" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3971,10 +3965,10 @@
         <v>587</v>
       </c>
       <c r="E63" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F63" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3991,10 +3985,10 @@
         <v>588</v>
       </c>
       <c r="E64" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F64" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4014,7 +4008,7 @@
         <v>610</v>
       </c>
       <c r="F65" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4031,10 +4025,10 @@
         <v>587</v>
       </c>
       <c r="E66" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F66" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4051,10 +4045,10 @@
         <v>588</v>
       </c>
       <c r="E67" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F67" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4074,7 +4068,7 @@
         <v>610</v>
       </c>
       <c r="F68" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4091,10 +4085,10 @@
         <v>587</v>
       </c>
       <c r="E69" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F69" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4111,10 +4105,10 @@
         <v>588</v>
       </c>
       <c r="E70" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F70" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4134,7 +4128,7 @@
         <v>610</v>
       </c>
       <c r="F71" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4151,10 +4145,10 @@
         <v>587</v>
       </c>
       <c r="E72" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F72" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4171,10 +4165,10 @@
         <v>588</v>
       </c>
       <c r="E73" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F73" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4194,7 +4188,7 @@
         <v>610</v>
       </c>
       <c r="F74" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4211,10 +4205,10 @@
         <v>587</v>
       </c>
       <c r="E75" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F75" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4231,10 +4225,10 @@
         <v>588</v>
       </c>
       <c r="E76" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F76" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4254,7 +4248,7 @@
         <v>610</v>
       </c>
       <c r="F77" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4271,10 +4265,10 @@
         <v>587</v>
       </c>
       <c r="E78" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F78" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4291,10 +4285,10 @@
         <v>588</v>
       </c>
       <c r="E79" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F79" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4314,7 +4308,7 @@
         <v>610</v>
       </c>
       <c r="F80" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4331,10 +4325,10 @@
         <v>587</v>
       </c>
       <c r="E81" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F81" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4351,10 +4345,10 @@
         <v>588</v>
       </c>
       <c r="E82" t="s">
-        <v>622</v>
+        <v>639</v>
       </c>
       <c r="F82" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4374,7 +4368,7 @@
         <v>610</v>
       </c>
       <c r="F83" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4391,10 +4385,10 @@
         <v>587</v>
       </c>
       <c r="E84" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F84" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4411,10 +4405,10 @@
         <v>588</v>
       </c>
       <c r="E85" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F85" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4434,7 +4428,7 @@
         <v>610</v>
       </c>
       <c r="F86" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4451,10 +4445,10 @@
         <v>587</v>
       </c>
       <c r="E87" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F87" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4471,10 +4465,10 @@
         <v>588</v>
       </c>
       <c r="E88" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F88" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4494,7 +4488,7 @@
         <v>610</v>
       </c>
       <c r="F89" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4511,10 +4505,10 @@
         <v>587</v>
       </c>
       <c r="E90" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F90" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4531,10 +4525,10 @@
         <v>588</v>
       </c>
       <c r="E91" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F91" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4554,7 +4548,7 @@
         <v>610</v>
       </c>
       <c r="F92" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4571,10 +4565,10 @@
         <v>587</v>
       </c>
       <c r="E93" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F93" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4591,10 +4585,10 @@
         <v>588</v>
       </c>
       <c r="E94" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F94" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4614,7 +4608,7 @@
         <v>610</v>
       </c>
       <c r="F95" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4631,10 +4625,10 @@
         <v>587</v>
       </c>
       <c r="E96" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F96" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4651,10 +4645,10 @@
         <v>588</v>
       </c>
       <c r="E97" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F97" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4674,7 +4668,7 @@
         <v>610</v>
       </c>
       <c r="F98" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4691,10 +4685,10 @@
         <v>587</v>
       </c>
       <c r="E99" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F99" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4711,10 +4705,10 @@
         <v>588</v>
       </c>
       <c r="E100" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F100" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4734,7 +4728,7 @@
         <v>610</v>
       </c>
       <c r="F101" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4751,10 +4745,10 @@
         <v>587</v>
       </c>
       <c r="E102" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F102" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4771,10 +4765,10 @@
         <v>588</v>
       </c>
       <c r="E103" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F103" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4794,7 +4788,7 @@
         <v>610</v>
       </c>
       <c r="F104" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4811,10 +4805,10 @@
         <v>587</v>
       </c>
       <c r="E105" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F105" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4831,10 +4825,10 @@
         <v>588</v>
       </c>
       <c r="E106" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F106" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4854,7 +4848,7 @@
         <v>610</v>
       </c>
       <c r="F107" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4871,10 +4865,10 @@
         <v>587</v>
       </c>
       <c r="E108" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F108" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4891,10 +4885,10 @@
         <v>588</v>
       </c>
       <c r="E109" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F109" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4914,7 +4908,7 @@
         <v>610</v>
       </c>
       <c r="F110" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4931,10 +4925,10 @@
         <v>587</v>
       </c>
       <c r="E111" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F111" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4951,10 +4945,10 @@
         <v>588</v>
       </c>
       <c r="E112" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F112" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4974,7 +4968,7 @@
         <v>610</v>
       </c>
       <c r="F113" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4991,10 +4985,10 @@
         <v>587</v>
       </c>
       <c r="E114" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="F114" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5011,10 +5005,10 @@
         <v>588</v>
       </c>
       <c r="E115" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F115" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5034,7 +5028,7 @@
         <v>610</v>
       </c>
       <c r="F116" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5054,7 +5048,7 @@
         <v>584</v>
       </c>
       <c r="F117" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5074,7 +5068,7 @@
         <v>584</v>
       </c>
       <c r="F118" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5094,7 +5088,7 @@
         <v>586</v>
       </c>
       <c r="F119" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5114,7 +5108,7 @@
         <v>642</v>
       </c>
       <c r="F120" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5134,7 +5128,7 @@
         <v>592</v>
       </c>
       <c r="F121" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5151,10 +5145,10 @@
         <v>593</v>
       </c>
       <c r="E122" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F122" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5174,7 +5168,7 @@
         <v>622</v>
       </c>
       <c r="F123" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5194,7 +5188,7 @@
         <v>584</v>
       </c>
       <c r="F124" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5214,7 +5208,7 @@
         <v>584</v>
       </c>
       <c r="F125" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5234,7 +5228,7 @@
         <v>584</v>
       </c>
       <c r="F126" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5254,7 +5248,7 @@
         <v>584</v>
       </c>
       <c r="F127" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5274,7 +5268,7 @@
         <v>584</v>
       </c>
       <c r="F128" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5294,7 +5288,7 @@
         <v>584</v>
       </c>
       <c r="F129" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5314,7 +5308,7 @@
         <v>584</v>
       </c>
       <c r="F130" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5334,7 +5328,7 @@
         <v>584</v>
       </c>
       <c r="F131" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5354,7 +5348,7 @@
         <v>584</v>
       </c>
       <c r="F132" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5374,7 +5368,7 @@
         <v>584</v>
       </c>
       <c r="F133" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5394,7 +5388,7 @@
         <v>584</v>
       </c>
       <c r="F134" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5414,7 +5408,7 @@
         <v>584</v>
       </c>
       <c r="F135" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5434,7 +5428,7 @@
         <v>584</v>
       </c>
       <c r="F136" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5454,7 +5448,7 @@
         <v>584</v>
       </c>
       <c r="F137" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5474,7 +5468,7 @@
         <v>589</v>
       </c>
       <c r="F138" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5494,7 +5488,7 @@
         <v>597</v>
       </c>
       <c r="F139" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5511,10 +5505,10 @@
         <v>597</v>
       </c>
       <c r="E140" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="F140" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5562,7 +5556,7 @@
         <v>594</v>
       </c>
       <c r="F143" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5582,7 +5576,7 @@
         <v>595</v>
       </c>
       <c r="F144" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5616,7 +5610,7 @@
         <v>597</v>
       </c>
       <c r="F146" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5664,7 +5658,7 @@
         <v>589</v>
       </c>
       <c r="F149" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5684,7 +5678,7 @@
         <v>596</v>
       </c>
       <c r="F150" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5701,10 +5695,10 @@
         <v>595</v>
       </c>
       <c r="E151" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="F151" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5724,7 +5718,7 @@
         <v>597</v>
       </c>
       <c r="F152" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5744,7 +5738,7 @@
         <v>595</v>
       </c>
       <c r="F153" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5764,7 +5758,7 @@
         <v>589</v>
       </c>
       <c r="F154" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5784,7 +5778,7 @@
         <v>595</v>
       </c>
       <c r="F155" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5818,7 +5812,7 @@
         <v>597</v>
       </c>
       <c r="F157" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5838,7 +5832,7 @@
         <v>595</v>
       </c>
       <c r="F158" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5886,7 +5880,7 @@
         <v>597</v>
       </c>
       <c r="F161" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5906,7 +5900,7 @@
         <v>584</v>
       </c>
       <c r="F162" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5926,7 +5920,7 @@
         <v>601</v>
       </c>
       <c r="F163" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5960,7 +5954,7 @@
         <v>597</v>
       </c>
       <c r="F165" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5991,10 +5985,10 @@
         <v>597</v>
       </c>
       <c r="E167" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="F167" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -6028,7 +6022,7 @@
         <v>595</v>
       </c>
       <c r="F169" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -6048,7 +6042,7 @@
         <v>597</v>
       </c>
       <c r="F170" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -6065,10 +6059,10 @@
         <v>589</v>
       </c>
       <c r="E171" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F171" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -6099,10 +6093,10 @@
         <v>603</v>
       </c>
       <c r="E173" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F173" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -6164,7 +6158,7 @@
         <v>597</v>
       </c>
       <c r="F177" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6184,7 +6178,7 @@
         <v>597</v>
       </c>
       <c r="F178" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6204,7 +6198,7 @@
         <v>597</v>
       </c>
       <c r="F179" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -6224,7 +6218,7 @@
         <v>596</v>
       </c>
       <c r="F180" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6255,10 +6249,10 @@
         <v>605</v>
       </c>
       <c r="E182" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F182" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -6278,7 +6272,7 @@
         <v>597</v>
       </c>
       <c r="F183" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -6295,10 +6289,10 @@
         <v>596</v>
       </c>
       <c r="E184" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="F184" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -6343,10 +6337,10 @@
         <v>606</v>
       </c>
       <c r="E187" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="F187" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -6366,7 +6360,7 @@
         <v>589</v>
       </c>
       <c r="F188" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -6400,7 +6394,7 @@
         <v>597</v>
       </c>
       <c r="F190" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -6417,10 +6411,10 @@
         <v>607</v>
       </c>
       <c r="E191" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="F191" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -6451,10 +6445,10 @@
         <v>595</v>
       </c>
       <c r="E193" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="F193" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -6488,7 +6482,7 @@
         <v>597</v>
       </c>
       <c r="F195" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6508,7 +6502,7 @@
         <v>597</v>
       </c>
       <c r="F196" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6528,7 +6522,7 @@
         <v>584</v>
       </c>
       <c r="F197" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6548,7 +6542,7 @@
         <v>597</v>
       </c>
       <c r="F198" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6568,7 +6562,7 @@
         <v>597</v>
       </c>
       <c r="F199" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6588,7 +6582,7 @@
         <v>618</v>
       </c>
       <c r="F200" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6608,7 +6602,7 @@
         <v>601</v>
       </c>
       <c r="F201" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -6639,10 +6633,10 @@
         <v>597</v>
       </c>
       <c r="E203" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F203" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6662,7 +6656,7 @@
         <v>609</v>
       </c>
       <c r="F204" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6682,7 +6676,7 @@
         <v>645</v>
       </c>
       <c r="F205" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6716,7 +6710,7 @@
         <v>601</v>
       </c>
       <c r="F207" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6733,10 +6727,10 @@
         <v>597</v>
       </c>
       <c r="E208" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F208" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6767,10 +6761,10 @@
         <v>609</v>
       </c>
       <c r="E210" t="s">
-        <v>605</v>
+        <v>646</v>
       </c>
       <c r="F210" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6790,7 +6784,7 @@
         <v>605</v>
       </c>
       <c r="F211" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6810,7 +6804,7 @@
         <v>646</v>
       </c>
       <c r="F212" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -6830,7 +6824,7 @@
         <v>611</v>
       </c>
       <c r="F213" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6889,10 +6883,10 @@
         <v>589</v>
       </c>
       <c r="E217" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F217" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6926,7 +6920,7 @@
         <v>596</v>
       </c>
       <c r="F219" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -6988,7 +6982,7 @@
         <v>597</v>
       </c>
       <c r="F223" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -7022,7 +7016,7 @@
         <v>589</v>
       </c>
       <c r="F225" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -7042,7 +7036,7 @@
         <v>595</v>
       </c>
       <c r="F226" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -7062,7 +7056,7 @@
         <v>601</v>
       </c>
       <c r="F227" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -7082,7 +7076,7 @@
         <v>605</v>
       </c>
       <c r="F228" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -7113,10 +7107,10 @@
         <v>598</v>
       </c>
       <c r="E230" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F230" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -7136,7 +7130,7 @@
         <v>597</v>
       </c>
       <c r="F231" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -7170,7 +7164,7 @@
         <v>595</v>
       </c>
       <c r="F233" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -7215,10 +7209,10 @@
         <v>595</v>
       </c>
       <c r="E236" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="F236" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -7238,7 +7232,7 @@
         <v>596</v>
       </c>
       <c r="F237" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -7286,7 +7280,7 @@
         <v>596</v>
       </c>
       <c r="F240" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -7303,10 +7297,10 @@
         <v>610</v>
       </c>
       <c r="E241" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F241" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -7326,7 +7320,7 @@
         <v>589</v>
       </c>
       <c r="F242" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -7343,10 +7337,10 @@
         <v>597</v>
       </c>
       <c r="E243" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F243" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -7366,7 +7360,7 @@
         <v>605</v>
       </c>
       <c r="F244" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -7386,7 +7380,7 @@
         <v>597</v>
       </c>
       <c r="F245" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -7406,7 +7400,7 @@
         <v>610</v>
       </c>
       <c r="F246" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -7426,7 +7420,7 @@
         <v>596</v>
       </c>
       <c r="F247" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -7443,10 +7437,10 @@
         <v>589</v>
       </c>
       <c r="E248" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F248" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7494,7 +7488,7 @@
         <v>601</v>
       </c>
       <c r="F251" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -7514,7 +7508,7 @@
         <v>589</v>
       </c>
       <c r="F252" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -7534,7 +7528,7 @@
         <v>597</v>
       </c>
       <c r="F253" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -7551,10 +7545,10 @@
         <v>613</v>
       </c>
       <c r="E254" t="s">
-        <v>607</v>
+        <v>647</v>
       </c>
       <c r="F254" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7616,7 +7610,7 @@
         <v>597</v>
       </c>
       <c r="F258" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7636,7 +7630,7 @@
         <v>594</v>
       </c>
       <c r="F259" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -7656,7 +7650,7 @@
         <v>597</v>
       </c>
       <c r="F260" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7687,10 +7681,10 @@
         <v>589</v>
       </c>
       <c r="E262" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F262" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7710,7 +7704,7 @@
         <v>589</v>
       </c>
       <c r="F263" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7727,10 +7721,10 @@
         <v>589</v>
       </c>
       <c r="E264" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F264" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7761,10 +7755,10 @@
         <v>597</v>
       </c>
       <c r="E266" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F266" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7798,7 +7792,7 @@
         <v>597</v>
       </c>
       <c r="F268" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7815,10 +7809,10 @@
         <v>588</v>
       </c>
       <c r="E269" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="F269" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7838,7 +7832,7 @@
         <v>597</v>
       </c>
       <c r="F270" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7858,7 +7852,7 @@
         <v>597</v>
       </c>
       <c r="F271" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7875,10 +7869,10 @@
         <v>601</v>
       </c>
       <c r="E272" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F272" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7898,7 +7892,7 @@
         <v>589</v>
       </c>
       <c r="F273" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7918,7 +7912,7 @@
         <v>584</v>
       </c>
       <c r="F274" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7938,7 +7932,7 @@
         <v>596</v>
       </c>
       <c r="F275" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7983,10 +7977,10 @@
         <v>615</v>
       </c>
       <c r="E278" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F278" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -8017,10 +8011,10 @@
         <v>616</v>
       </c>
       <c r="E280" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F280" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -8037,10 +8031,10 @@
         <v>617</v>
       </c>
       <c r="E281" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F281" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -8057,10 +8051,10 @@
         <v>608</v>
       </c>
       <c r="E282" t="s">
-        <v>605</v>
+        <v>646</v>
       </c>
       <c r="F282" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -8080,7 +8074,7 @@
         <v>597</v>
       </c>
       <c r="F283" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="284" spans="1:6">
@@ -8100,7 +8094,7 @@
         <v>597</v>
       </c>
       <c r="F284" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -8120,7 +8114,7 @@
         <v>595</v>
       </c>
       <c r="F285" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -8140,7 +8134,7 @@
         <v>589</v>
       </c>
       <c r="F286" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -8157,10 +8151,10 @@
         <v>597</v>
       </c>
       <c r="E287" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F287" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -8180,7 +8174,7 @@
         <v>597</v>
       </c>
       <c r="F288" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -8200,7 +8194,7 @@
         <v>595</v>
       </c>
       <c r="F289" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="290" spans="1:6">
@@ -8220,7 +8214,7 @@
         <v>597</v>
       </c>
       <c r="F290" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -8251,10 +8245,10 @@
         <v>599</v>
       </c>
       <c r="E292" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="F292" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="293" spans="1:6">
@@ -8274,7 +8268,7 @@
         <v>601</v>
       </c>
       <c r="F293" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -8347,10 +8341,10 @@
         <v>597</v>
       </c>
       <c r="E298" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F298" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -8370,7 +8364,7 @@
         <v>610</v>
       </c>
       <c r="F299" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -8387,10 +8381,10 @@
         <v>619</v>
       </c>
       <c r="E300" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="F300" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="301" spans="1:6">
@@ -8407,10 +8401,10 @@
         <v>589</v>
       </c>
       <c r="E301" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F301" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -8430,7 +8424,7 @@
         <v>589</v>
       </c>
       <c r="F302" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -8450,7 +8444,7 @@
         <v>595</v>
       </c>
       <c r="F303" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="304" spans="1:6">
@@ -8512,7 +8506,7 @@
         <v>601</v>
       </c>
       <c r="F307" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -8546,7 +8540,7 @@
         <v>597</v>
       </c>
       <c r="F309" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -8566,7 +8560,7 @@
         <v>611</v>
       </c>
       <c r="F310" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -8583,10 +8577,10 @@
         <v>620</v>
       </c>
       <c r="E311" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F311" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -8606,7 +8600,7 @@
         <v>597</v>
       </c>
       <c r="F312" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -8640,7 +8634,7 @@
         <v>595</v>
       </c>
       <c r="F314" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -8674,7 +8668,7 @@
         <v>595</v>
       </c>
       <c r="F316" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -8694,7 +8688,7 @@
         <v>595</v>
       </c>
       <c r="F317" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -8714,7 +8708,7 @@
         <v>597</v>
       </c>
       <c r="F318" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -8734,7 +8728,7 @@
         <v>597</v>
       </c>
       <c r="F319" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -8754,7 +8748,7 @@
         <v>597</v>
       </c>
       <c r="F320" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -8774,7 +8768,7 @@
         <v>597</v>
       </c>
       <c r="F321" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="322" spans="1:6">
@@ -8794,7 +8788,7 @@
         <v>601</v>
       </c>
       <c r="F322" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="323" spans="1:6">
@@ -8828,7 +8822,7 @@
         <v>597</v>
       </c>
       <c r="F324" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="325" spans="1:6">
@@ -8845,10 +8839,10 @@
         <v>622</v>
       </c>
       <c r="E325" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F325" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -8896,7 +8890,7 @@
         <v>589</v>
       </c>
       <c r="F328" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="329" spans="1:6">
@@ -8927,10 +8921,10 @@
         <v>597</v>
       </c>
       <c r="E330" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F330" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="331" spans="1:6">
@@ -8978,7 +8972,7 @@
         <v>596</v>
       </c>
       <c r="F333" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="334" spans="1:6">
@@ -8998,7 +8992,7 @@
         <v>589</v>
       </c>
       <c r="F334" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="335" spans="1:6">
@@ -9032,7 +9026,7 @@
         <v>601</v>
       </c>
       <c r="F336" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -9049,10 +9043,10 @@
         <v>597</v>
       </c>
       <c r="E337" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
       <c r="F337" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -9072,7 +9066,7 @@
         <v>595</v>
       </c>
       <c r="F338" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="339" spans="1:6">
@@ -9089,10 +9083,10 @@
         <v>597</v>
       </c>
       <c r="E339" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="F339" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="340" spans="1:6">
@@ -9126,7 +9120,7 @@
         <v>618</v>
       </c>
       <c r="F341" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="342" spans="1:6">
@@ -9143,10 +9137,10 @@
         <v>597</v>
       </c>
       <c r="E342" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F342" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="343" spans="1:6">
@@ -9177,10 +9171,10 @@
         <v>596</v>
       </c>
       <c r="E344" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F344" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="345" spans="1:6">
@@ -9214,7 +9208,7 @@
         <v>597</v>
       </c>
       <c r="F346" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="347" spans="1:6">
@@ -9231,10 +9225,10 @@
         <v>611</v>
       </c>
       <c r="E347" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="F347" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -9254,7 +9248,7 @@
         <v>597</v>
       </c>
       <c r="F348" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -9288,7 +9282,7 @@
         <v>589</v>
       </c>
       <c r="F350" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -9308,7 +9302,7 @@
         <v>597</v>
       </c>
       <c r="F351" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -9339,10 +9333,10 @@
         <v>598</v>
       </c>
       <c r="E353" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F353" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="354" spans="1:6">
@@ -9362,7 +9356,7 @@
         <v>584</v>
       </c>
       <c r="F354" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="355" spans="1:6">
@@ -9393,10 +9387,10 @@
         <v>601</v>
       </c>
       <c r="E356" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="F356" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -9416,7 +9410,7 @@
         <v>596</v>
       </c>
       <c r="F357" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -9450,7 +9444,7 @@
         <v>592</v>
       </c>
       <c r="F359" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="360" spans="1:6">
@@ -9467,10 +9461,10 @@
         <v>601</v>
       </c>
       <c r="E360" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F360" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
     </row>
     <row r="361" spans="1:6">
@@ -9490,7 +9484,7 @@
         <v>597</v>
       </c>
       <c r="F361" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -9510,7 +9504,7 @@
         <v>595</v>
       </c>
       <c r="F362" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="363" spans="1:6">
@@ -9527,10 +9521,10 @@
         <v>597</v>
       </c>
       <c r="E363" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F363" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="364" spans="1:6">
@@ -9547,10 +9541,10 @@
         <v>595</v>
       </c>
       <c r="E364" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F364" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -9567,10 +9561,10 @@
         <v>595</v>
       </c>
       <c r="E365" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="F365" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="366" spans="1:6">
@@ -9590,7 +9584,7 @@
         <v>597</v>
       </c>
       <c r="F366" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="367" spans="1:6">
@@ -9635,10 +9629,10 @@
         <v>585</v>
       </c>
       <c r="E369" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="F369" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -9672,7 +9666,7 @@
         <v>595</v>
       </c>
       <c r="F371" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="372" spans="1:6">
@@ -9692,7 +9686,7 @@
         <v>597</v>
       </c>
       <c r="F372" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -9712,7 +9706,7 @@
         <v>597</v>
       </c>
       <c r="F373" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -9729,10 +9723,10 @@
         <v>596</v>
       </c>
       <c r="E374" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F374" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="375" spans="1:6">
@@ -9850,7 +9844,7 @@
         <v>595</v>
       </c>
       <c r="F382" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="383" spans="1:6">
@@ -9898,7 +9892,7 @@
         <v>597</v>
       </c>
       <c r="F385" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="386" spans="1:6">
@@ -9918,7 +9912,7 @@
         <v>595</v>
       </c>
       <c r="F386" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="387" spans="1:6">
@@ -9935,10 +9929,10 @@
         <v>617</v>
       </c>
       <c r="E387" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F387" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
     </row>
     <row r="388" spans="1:6">
@@ -9958,7 +9952,7 @@
         <v>584</v>
       </c>
       <c r="F388" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="389" spans="1:6">
@@ -9978,7 +9972,7 @@
         <v>592</v>
       </c>
       <c r="F389" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="390" spans="1:6">
@@ -10009,10 +10003,10 @@
         <v>589</v>
       </c>
       <c r="E391" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F391" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="392" spans="1:6">
@@ -10032,7 +10026,7 @@
         <v>584</v>
       </c>
       <c r="F392" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -10063,10 +10057,10 @@
         <v>611</v>
       </c>
       <c r="E394" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F394" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -10086,7 +10080,7 @@
         <v>597</v>
       </c>
       <c r="F395" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -10106,7 +10100,7 @@
         <v>597</v>
       </c>
       <c r="F396" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="397" spans="1:6">
@@ -10165,10 +10159,10 @@
         <v>596</v>
       </c>
       <c r="E400" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="F400" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -10185,10 +10179,10 @@
         <v>599</v>
       </c>
       <c r="E401" t="s">
-        <v>607</v>
+        <v>654</v>
       </c>
       <c r="F401" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -10205,10 +10199,10 @@
         <v>597</v>
       </c>
       <c r="E402" t="s">
-        <v>622</v>
+        <v>655</v>
       </c>
       <c r="F402" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
     </row>
     <row r="403" spans="1:6">
@@ -10228,7 +10222,7 @@
         <v>586</v>
       </c>
       <c r="F403" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="404" spans="1:6">
@@ -10248,7 +10242,7 @@
         <v>607</v>
       </c>
       <c r="F404" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="405" spans="1:6">
@@ -10279,10 +10273,10 @@
         <v>597</v>
       </c>
       <c r="E406" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F406" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="407" spans="1:6">
@@ -10316,7 +10310,7 @@
         <v>597</v>
       </c>
       <c r="F408" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -10336,7 +10330,7 @@
         <v>597</v>
       </c>
       <c r="F409" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="410" spans="1:6">
@@ -10356,7 +10350,7 @@
         <v>597</v>
       </c>
       <c r="F410" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="411" spans="1:6">
@@ -10390,7 +10384,7 @@
         <v>597</v>
       </c>
       <c r="F412" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="413" spans="1:6">
@@ -10407,10 +10401,10 @@
         <v>589</v>
       </c>
       <c r="E413" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="F413" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="414" spans="1:6">
@@ -10427,10 +10421,10 @@
         <v>625</v>
       </c>
       <c r="E414" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="F414" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
     </row>
     <row r="415" spans="1:6">
@@ -10464,7 +10458,7 @@
         <v>595</v>
       </c>
       <c r="F416" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="417" spans="1:6">
@@ -10512,7 +10506,7 @@
         <v>598</v>
       </c>
       <c r="F419" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -10532,7 +10526,7 @@
         <v>597</v>
       </c>
       <c r="F420" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -10563,10 +10557,10 @@
         <v>609</v>
       </c>
       <c r="E422" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="F422" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="423" spans="1:6">
@@ -10600,7 +10594,7 @@
         <v>595</v>
       </c>
       <c r="F424" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="425" spans="1:6">
@@ -10617,10 +10611,10 @@
         <v>626</v>
       </c>
       <c r="E425" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="F425" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
     </row>
     <row r="426" spans="1:6">
@@ -10640,7 +10634,7 @@
         <v>597</v>
       </c>
       <c r="F426" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="427" spans="1:6">
@@ -10657,10 +10651,10 @@
         <v>585</v>
       </c>
       <c r="E427" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="F427" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="428" spans="1:6">
@@ -10719,10 +10713,10 @@
         <v>595</v>
       </c>
       <c r="E431" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F431" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="432" spans="1:6">
@@ -10742,7 +10736,7 @@
         <v>607</v>
       </c>
       <c r="F432" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="433" spans="1:6">
@@ -10790,7 +10784,7 @@
         <v>597</v>
       </c>
       <c r="F435" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="436" spans="1:6">
@@ -10821,10 +10815,10 @@
         <v>597</v>
       </c>
       <c r="E437" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="F437" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="438" spans="1:6">
@@ -10844,7 +10838,7 @@
         <v>589</v>
       </c>
       <c r="F438" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -10864,7 +10858,7 @@
         <v>595</v>
       </c>
       <c r="F439" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -10898,7 +10892,7 @@
         <v>597</v>
       </c>
       <c r="F441" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="442" spans="1:6">
@@ -10915,10 +10909,10 @@
         <v>595</v>
       </c>
       <c r="E442" t="s">
-        <v>594</v>
+        <v>618</v>
       </c>
       <c r="F442" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="443" spans="1:6">
@@ -10952,7 +10946,7 @@
         <v>597</v>
       </c>
       <c r="F444" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="445" spans="1:6">
@@ -10983,10 +10977,10 @@
         <v>608</v>
       </c>
       <c r="E446" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F446" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="447" spans="1:6">
@@ -11006,7 +11000,7 @@
         <v>597</v>
       </c>
       <c r="F447" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="448" spans="1:6">
@@ -11037,10 +11031,10 @@
         <v>597</v>
       </c>
       <c r="E449" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F449" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="450" spans="1:6">
@@ -11060,7 +11054,7 @@
         <v>597</v>
       </c>
       <c r="F450" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -11080,7 +11074,7 @@
         <v>596</v>
       </c>
       <c r="F451" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
     </row>
     <row r="452" spans="1:6">
@@ -11125,10 +11119,10 @@
         <v>596</v>
       </c>
       <c r="E454" t="s">
-        <v>584</v>
+        <v>597</v>
       </c>
       <c r="F454" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="455" spans="1:6">
@@ -11148,7 +11142,7 @@
         <v>597</v>
       </c>
       <c r="F455" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="456" spans="1:6">
@@ -11168,7 +11162,7 @@
         <v>597</v>
       </c>
       <c r="F456" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="457" spans="1:6">
@@ -11185,10 +11179,10 @@
         <v>597</v>
       </c>
       <c r="E457" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F457" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="458" spans="1:6">
@@ -11205,10 +11199,10 @@
         <v>619</v>
       </c>
       <c r="E458" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F458" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="459" spans="1:6">
@@ -11225,10 +11219,10 @@
         <v>602</v>
       </c>
       <c r="E459" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F459" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="460" spans="1:6">
@@ -11245,10 +11239,10 @@
         <v>595</v>
       </c>
       <c r="E460" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F460" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="461" spans="1:6">
@@ -11265,10 +11259,10 @@
         <v>598</v>
       </c>
       <c r="E461" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="F461" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="462" spans="1:6">
@@ -11299,10 +11293,10 @@
         <v>601</v>
       </c>
       <c r="E463" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F463" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="464" spans="1:6">
@@ -11322,7 +11316,7 @@
         <v>597</v>
       </c>
       <c r="F464" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="465" spans="1:6">
@@ -11342,7 +11336,7 @@
         <v>595</v>
       </c>
       <c r="F465" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="466" spans="1:6">
@@ -11376,7 +11370,7 @@
         <v>596</v>
       </c>
       <c r="F467" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="468" spans="1:6">
@@ -11396,7 +11390,7 @@
         <v>596</v>
       </c>
       <c r="F468" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="469" spans="1:6">
@@ -11413,10 +11407,10 @@
         <v>597</v>
       </c>
       <c r="E469" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F469" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="470" spans="1:6">
@@ -11433,10 +11427,10 @@
         <v>598</v>
       </c>
       <c r="E470" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="F470" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="471" spans="1:6">
@@ -11453,10 +11447,10 @@
         <v>605</v>
       </c>
       <c r="E471" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F471" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -11476,7 +11470,7 @@
         <v>601</v>
       </c>
       <c r="F472" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="473" spans="1:6">
@@ -11496,7 +11490,7 @@
         <v>596</v>
       </c>
       <c r="F473" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="474" spans="1:6">
@@ -11558,7 +11552,7 @@
         <v>592</v>
       </c>
       <c r="F477" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
     </row>
     <row r="478" spans="1:6">
@@ -11578,7 +11572,7 @@
         <v>596</v>
       </c>
       <c r="F478" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="479" spans="1:6">
@@ -11595,10 +11589,10 @@
         <v>601</v>
       </c>
       <c r="E479" t="s">
-        <v>652</v>
+        <v>626</v>
       </c>
       <c r="F479" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -11615,10 +11609,10 @@
         <v>601</v>
       </c>
       <c r="E480" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="F480" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="481" spans="1:6">
@@ -11649,10 +11643,10 @@
         <v>626</v>
       </c>
       <c r="E482" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="F482" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="483" spans="1:6">
@@ -11672,7 +11666,7 @@
         <v>596</v>
       </c>
       <c r="F483" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="484" spans="1:6">
@@ -11703,10 +11697,10 @@
         <v>601</v>
       </c>
       <c r="E485" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="F485" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="486" spans="1:6">
@@ -11726,7 +11720,7 @@
         <v>597</v>
       </c>
       <c r="F486" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="487" spans="1:6">
@@ -11785,10 +11779,10 @@
         <v>609</v>
       </c>
       <c r="E490" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="F490" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="491" spans="1:6">
@@ -11808,7 +11802,7 @@
         <v>597</v>
       </c>
       <c r="F491" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="492" spans="1:6">
@@ -11842,7 +11836,7 @@
         <v>630</v>
       </c>
       <c r="F493" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="494" spans="1:6">
@@ -11890,7 +11884,7 @@
         <v>597</v>
       </c>
       <c r="F496" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="497" spans="1:6">
@@ -11907,10 +11901,10 @@
         <v>609</v>
       </c>
       <c r="E497" t="s">
-        <v>604</v>
+        <v>662</v>
       </c>
       <c r="F497" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="498" spans="1:6">
@@ -11944,7 +11938,7 @@
         <v>595</v>
       </c>
       <c r="F499" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="500" spans="1:6">
@@ -11992,7 +11986,7 @@
         <v>626</v>
       </c>
       <c r="F502" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -12012,7 +12006,7 @@
         <v>596</v>
       </c>
       <c r="F503" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="504" spans="1:6">
@@ -12029,10 +12023,10 @@
         <v>589</v>
       </c>
       <c r="E504" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F504" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -12066,7 +12060,7 @@
         <v>605</v>
       </c>
       <c r="F506" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="507" spans="1:6">
@@ -12083,10 +12077,10 @@
         <v>589</v>
       </c>
       <c r="E507" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="F507" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
     </row>
     <row r="508" spans="1:6">
@@ -12106,7 +12100,7 @@
         <v>597</v>
       </c>
       <c r="F508" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="509" spans="1:6">
@@ -12140,7 +12134,7 @@
         <v>596</v>
       </c>
       <c r="F510" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -12160,7 +12154,7 @@
         <v>595</v>
       </c>
       <c r="F511" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -12177,10 +12171,10 @@
         <v>597</v>
       </c>
       <c r="E512" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F512" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="513" spans="1:6">
@@ -12200,7 +12194,7 @@
         <v>596</v>
       </c>
       <c r="F513" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="514" spans="1:6">
@@ -12301,10 +12295,10 @@
         <v>595</v>
       </c>
       <c r="E520" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="F520" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="521" spans="1:6">
@@ -12324,7 +12318,7 @@
         <v>596</v>
       </c>
       <c r="F521" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -12358,7 +12352,7 @@
         <v>589</v>
       </c>
       <c r="F523" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="524" spans="1:6">
@@ -12375,10 +12369,10 @@
         <v>590</v>
       </c>
       <c r="E524" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F524" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -12398,7 +12392,7 @@
         <v>597</v>
       </c>
       <c r="F525" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -12415,10 +12409,10 @@
         <v>589</v>
       </c>
       <c r="E526" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F526" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -12435,10 +12429,10 @@
         <v>618</v>
       </c>
       <c r="E527" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F527" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -12458,7 +12452,7 @@
         <v>592</v>
       </c>
       <c r="F528" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -12478,7 +12472,7 @@
         <v>597</v>
       </c>
       <c r="F529" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -12498,7 +12492,7 @@
         <v>597</v>
       </c>
       <c r="F530" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="531" spans="1:6">
@@ -12518,7 +12512,7 @@
         <v>595</v>
       </c>
       <c r="F531" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="532" spans="1:6">
@@ -12552,7 +12546,7 @@
         <v>589</v>
       </c>
       <c r="F533" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="534" spans="1:6">
@@ -12572,7 +12566,7 @@
         <v>607</v>
       </c>
       <c r="F534" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="535" spans="1:6">
@@ -12592,7 +12586,7 @@
         <v>597</v>
       </c>
       <c r="F535" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="536" spans="1:6">
@@ -12626,7 +12620,7 @@
         <v>597</v>
       </c>
       <c r="F537" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -12646,7 +12640,7 @@
         <v>587</v>
       </c>
       <c r="F538" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="539" spans="1:6">
@@ -12666,7 +12660,7 @@
         <v>610</v>
       </c>
       <c r="F539" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
     </row>
     <row r="540" spans="1:6">
@@ -12686,7 +12680,7 @@
         <v>589</v>
       </c>
       <c r="F540" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="541" spans="1:6">
@@ -12717,10 +12711,10 @@
         <v>589</v>
       </c>
       <c r="E542" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F542" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -12754,7 +12748,7 @@
         <v>597</v>
       </c>
       <c r="F544" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="545" spans="1:6">
@@ -12774,7 +12768,7 @@
         <v>597</v>
       </c>
       <c r="F545" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="546" spans="1:6">
@@ -12808,7 +12802,7 @@
         <v>597</v>
       </c>
       <c r="F547" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -12842,7 +12836,7 @@
         <v>589</v>
       </c>
       <c r="F549" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="550" spans="1:6">
@@ -12862,7 +12856,7 @@
         <v>597</v>
       </c>
       <c r="F550" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -12893,10 +12887,10 @@
         <v>608</v>
       </c>
       <c r="E552" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F552" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -12916,7 +12910,7 @@
         <v>597</v>
       </c>
       <c r="F553" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -12936,7 +12930,7 @@
         <v>597</v>
       </c>
       <c r="F554" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="555" spans="1:6">
@@ -12956,7 +12950,7 @@
         <v>611</v>
       </c>
       <c r="F555" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="556" spans="1:6">
@@ -12990,7 +12984,7 @@
         <v>597</v>
       </c>
       <c r="F557" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="558" spans="1:6">
@@ -13007,10 +13001,10 @@
         <v>624</v>
       </c>
       <c r="E558" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="F558" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="559" spans="1:6">
@@ -13030,7 +13024,7 @@
         <v>595</v>
       </c>
       <c r="F559" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="560" spans="1:6">
@@ -13047,10 +13041,10 @@
         <v>608</v>
       </c>
       <c r="E560" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="F560" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="561" spans="1:6">
@@ -13070,7 +13064,7 @@
         <v>589</v>
       </c>
       <c r="F561" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="562" spans="1:6">
@@ -13087,10 +13081,10 @@
         <v>601</v>
       </c>
       <c r="E562" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="F562" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -13107,10 +13101,10 @@
         <v>585</v>
       </c>
       <c r="E563" t="s">
-        <v>598</v>
+        <v>611</v>
       </c>
       <c r="F563" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="564" spans="1:6">
@@ -13127,10 +13121,10 @@
         <v>597</v>
       </c>
       <c r="E564" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F564" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -13147,10 +13141,10 @@
         <v>611</v>
       </c>
       <c r="E565" t="s">
-        <v>660</v>
+        <v>641</v>
       </c>
       <c r="F565" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
     </row>
     <row r="566" spans="1:6">
@@ -13184,7 +13178,7 @@
         <v>597</v>
       </c>
       <c r="F567" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="568" spans="1:6">
@@ -13204,7 +13198,7 @@
         <v>595</v>
       </c>
       <c r="F568" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="569" spans="1:6">
@@ -13224,7 +13218,7 @@
         <v>597</v>
       </c>
       <c r="F569" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -13241,10 +13235,10 @@
         <v>597</v>
       </c>
       <c r="E570" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F570" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="571" spans="1:6">
@@ -13292,7 +13286,7 @@
         <v>589</v>
       </c>
       <c r="F573" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="574" spans="1:6">
@@ -13309,10 +13303,10 @@
         <v>605</v>
       </c>
       <c r="E574" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F574" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="575" spans="1:6">
@@ -13346,7 +13340,7 @@
         <v>595</v>
       </c>
       <c r="F576" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="577" spans="1:6">
@@ -13391,10 +13385,10 @@
         <v>585</v>
       </c>
       <c r="E579" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F579" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="580" spans="1:6">
@@ -13411,10 +13405,10 @@
         <v>613</v>
       </c>
       <c r="E580" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="F580" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
     </row>
     <row r="581" spans="1:6">
@@ -13445,10 +13439,10 @@
         <v>631</v>
       </c>
       <c r="E582" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F582" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="583" spans="1:6">
@@ -13482,7 +13476,7 @@
         <v>601</v>
       </c>
       <c r="F584" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="585" spans="1:6">
@@ -13516,7 +13510,7 @@
         <v>595</v>
       </c>
       <c r="F586" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="587" spans="1:6">
@@ -13536,7 +13530,7 @@
         <v>597</v>
       </c>
       <c r="F587" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="588" spans="1:6">
@@ -13567,10 +13561,10 @@
         <v>596</v>
       </c>
       <c r="E589" t="s">
-        <v>596</v>
+        <v>610</v>
       </c>
       <c r="F589" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="590" spans="1:6">
@@ -13604,7 +13598,7 @@
         <v>595</v>
       </c>
       <c r="F591" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="592" spans="1:6">
@@ -13624,7 +13618,7 @@
         <v>589</v>
       </c>
       <c r="F592" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="593" spans="1:6">
@@ -13644,7 +13638,7 @@
         <v>601</v>
       </c>
       <c r="F593" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="594" spans="1:6">
@@ -13678,7 +13672,7 @@
         <v>607</v>
       </c>
       <c r="F595" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="596" spans="1:6">
@@ -13698,7 +13692,7 @@
         <v>596</v>
       </c>
       <c r="F596" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="597" spans="1:6">
@@ -13743,10 +13737,10 @@
         <v>588</v>
       </c>
       <c r="E599" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="F599" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="600" spans="1:6">
@@ -13763,10 +13757,10 @@
         <v>633</v>
       </c>
       <c r="E600" t="s">
-        <v>662</v>
+        <v>633</v>
       </c>
       <c r="F600" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="601" spans="1:6">
@@ -13783,10 +13777,10 @@
         <v>597</v>
       </c>
       <c r="E601" t="s">
-        <v>598</v>
+        <v>609</v>
       </c>
       <c r="F601" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="602" spans="1:6">
@@ -13806,7 +13800,7 @@
         <v>595</v>
       </c>
       <c r="F602" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="603" spans="1:6">
@@ -13826,7 +13820,7 @@
         <v>597</v>
       </c>
       <c r="F603" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="604" spans="1:6">
@@ -13846,7 +13840,7 @@
         <v>597</v>
       </c>
       <c r="F604" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="605" spans="1:6">
@@ -13866,7 +13860,7 @@
         <v>597</v>
       </c>
       <c r="F605" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="606" spans="1:6">
@@ -13883,10 +13877,10 @@
         <v>597</v>
       </c>
       <c r="E606" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F606" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="607" spans="1:6">
@@ -13906,7 +13900,7 @@
         <v>595</v>
       </c>
       <c r="F607" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="608" spans="1:6">
@@ -13926,7 +13920,7 @@
         <v>597</v>
       </c>
       <c r="F608" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -13960,7 +13954,7 @@
         <v>596</v>
       </c>
       <c r="F610" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="611" spans="1:6">
@@ -13977,10 +13971,10 @@
         <v>597</v>
       </c>
       <c r="E611" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F611" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="612" spans="1:6">
@@ -13997,10 +13991,10 @@
         <v>610</v>
       </c>
       <c r="E612" t="s">
-        <v>587</v>
+        <v>610</v>
       </c>
       <c r="F612" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
     </row>
     <row r="613" spans="1:6">
@@ -14020,7 +14014,7 @@
         <v>597</v>
       </c>
       <c r="F613" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="614" spans="1:6">
@@ -14051,10 +14045,10 @@
         <v>593</v>
       </c>
       <c r="E615" t="s">
-        <v>663</v>
+        <v>647</v>
       </c>
       <c r="F615" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="616" spans="1:6">
@@ -14074,7 +14068,7 @@
         <v>596</v>
       </c>
       <c r="F616" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
     </row>
     <row r="617" spans="1:6">
@@ -14091,10 +14085,10 @@
         <v>634</v>
       </c>
       <c r="E617" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
       <c r="F617" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
     </row>
     <row r="618" spans="1:6">
@@ -14128,7 +14122,7 @@
         <v>589</v>
       </c>
       <c r="F619" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="620" spans="1:6">
@@ -14190,7 +14184,7 @@
         <v>596</v>
       </c>
       <c r="F623" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -14207,10 +14201,10 @@
         <v>597</v>
       </c>
       <c r="E624" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F624" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="625" spans="1:6">
@@ -14227,10 +14221,10 @@
         <v>593</v>
       </c>
       <c r="E625" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="F625" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="626" spans="1:6">
@@ -14250,7 +14244,7 @@
         <v>597</v>
       </c>
       <c r="F626" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="627" spans="1:6">
@@ -14270,7 +14264,7 @@
         <v>597</v>
       </c>
       <c r="F627" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="628" spans="1:6">
@@ -14287,10 +14281,10 @@
         <v>599</v>
       </c>
       <c r="E628" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="F628" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -14310,7 +14304,7 @@
         <v>596</v>
       </c>
       <c r="F629" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -14330,7 +14324,7 @@
         <v>634</v>
       </c>
       <c r="F630" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="631" spans="1:6">
@@ -14375,10 +14369,10 @@
         <v>596</v>
       </c>
       <c r="E633" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F633" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="634" spans="1:6">
@@ -14423,10 +14417,10 @@
         <v>597</v>
       </c>
       <c r="E636" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="F636" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="637" spans="1:6">
@@ -14460,7 +14454,7 @@
         <v>596</v>
       </c>
       <c r="F638" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="639" spans="1:6">
@@ -14477,10 +14471,10 @@
         <v>596</v>
       </c>
       <c r="E639" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="F639" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="640" spans="1:6">
@@ -14514,7 +14508,7 @@
         <v>607</v>
       </c>
       <c r="F641" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="642" spans="1:6">
@@ -14531,10 +14525,10 @@
         <v>597</v>
       </c>
       <c r="E642" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F642" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="643" spans="1:6">
@@ -14551,10 +14545,10 @@
         <v>597</v>
       </c>
       <c r="E643" t="s">
-        <v>665</v>
+        <v>626</v>
       </c>
       <c r="F643" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="644" spans="1:6">
@@ -14602,7 +14596,7 @@
         <v>597</v>
       </c>
       <c r="F646" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
     </row>
     <row r="647" spans="1:6">
@@ -14619,10 +14613,10 @@
         <v>585</v>
       </c>
       <c r="E647" t="s">
-        <v>641</v>
+        <v>605</v>
       </c>
       <c r="F647" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
     </row>
     <row r="648" spans="1:6">
@@ -14642,7 +14636,7 @@
         <v>666</v>
       </c>
       <c r="F648" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
     </row>
     <row r="649" spans="1:6">
@@ -14659,10 +14653,10 @@
         <v>597</v>
       </c>
       <c r="E649" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F649" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="650" spans="1:6">
@@ -14682,7 +14676,7 @@
         <v>607</v>
       </c>
       <c r="F650" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="651" spans="1:6">
@@ -14702,7 +14696,7 @@
         <v>610</v>
       </c>
       <c r="F651" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
     </row>
     <row r="652" spans="1:6">
@@ -14761,10 +14755,10 @@
         <v>635</v>
       </c>
       <c r="E655" t="s">
-        <v>607</v>
+        <v>626</v>
       </c>
       <c r="F655" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
     </row>
     <row r="656" spans="1:6">
@@ -14781,10 +14775,10 @@
         <v>636</v>
       </c>
       <c r="E656" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="F656" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="657" spans="1:6">
@@ -14818,7 +14812,7 @@
         <v>595</v>
       </c>
       <c r="F658" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="659" spans="1:6">
@@ -14835,10 +14829,10 @@
         <v>595</v>
       </c>
       <c r="E659" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F659" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="660" spans="1:6">
@@ -14869,10 +14863,10 @@
         <v>593</v>
       </c>
       <c r="E661" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="F661" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="662" spans="1:6">
@@ -14889,10 +14883,10 @@
         <v>608</v>
       </c>
       <c r="E662" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F662" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -14909,10 +14903,10 @@
         <v>589</v>
       </c>
       <c r="E663" t="s">
-        <v>584</v>
+        <v>595</v>
       </c>
       <c r="F663" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -14929,10 +14923,10 @@
         <v>599</v>
       </c>
       <c r="E664" t="s">
-        <v>607</v>
+        <v>634</v>
       </c>
       <c r="F664" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
     </row>
     <row r="665" spans="1:6">
@@ -14949,10 +14943,10 @@
         <v>597</v>
       </c>
       <c r="E665" t="s">
-        <v>592</v>
+        <v>609</v>
       </c>
       <c r="F665" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="666" spans="1:6">
@@ -15014,7 +15008,7 @@
         <v>589</v>
       </c>
       <c r="F669" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="670" spans="1:6">
@@ -15031,10 +15025,10 @@
         <v>596</v>
       </c>
       <c r="E670" t="s">
-        <v>596</v>
+        <v>609</v>
       </c>
       <c r="F670" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="671" spans="1:6">
@@ -15054,7 +15048,7 @@
         <v>597</v>
       </c>
       <c r="F671" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="672" spans="1:6">
@@ -15074,7 +15068,7 @@
         <v>597</v>
       </c>
       <c r="F672" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -15091,10 +15085,10 @@
         <v>637</v>
       </c>
       <c r="E673" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="F673" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -15114,7 +15108,7 @@
         <v>595</v>
       </c>
       <c r="F674" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="675" spans="1:6">
@@ -15134,7 +15128,7 @@
         <v>589</v>
       </c>
       <c r="F675" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -15165,10 +15159,10 @@
         <v>618</v>
       </c>
       <c r="E677" t="s">
-        <v>667</v>
+        <v>647</v>
       </c>
       <c r="F677" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -15202,7 +15196,7 @@
         <v>596</v>
       </c>
       <c r="F679" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="680" spans="1:6">
@@ -15261,10 +15255,10 @@
         <v>589</v>
       </c>
       <c r="E683" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F683" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="684" spans="1:6">
@@ -15337,10 +15331,10 @@
         <v>589</v>
       </c>
       <c r="E688" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F688" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="689" spans="1:6">
@@ -15374,7 +15368,7 @@
         <v>589</v>
       </c>
       <c r="F690" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="691" spans="1:6">
@@ -15408,7 +15402,7 @@
         <v>610</v>
       </c>
       <c r="F692" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="693" spans="1:6">
@@ -15425,10 +15419,10 @@
         <v>589</v>
       </c>
       <c r="E693" t="s">
-        <v>668</v>
+        <v>600</v>
       </c>
       <c r="F693" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
     </row>
     <row r="694" spans="1:6">
@@ -15445,10 +15439,10 @@
         <v>589</v>
       </c>
       <c r="E694" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F694" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="695" spans="1:6">
@@ -15468,7 +15462,7 @@
         <v>589</v>
       </c>
       <c r="F695" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
     </row>
     <row r="696" spans="1:6">
@@ -15488,7 +15482,7 @@
         <v>589</v>
       </c>
       <c r="F696" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="697" spans="1:6">
@@ -15508,7 +15502,7 @@
         <v>589</v>
       </c>
       <c r="F697" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -15528,7 +15522,7 @@
         <v>589</v>
       </c>
       <c r="F698" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="699" spans="1:6">
@@ -15545,10 +15539,10 @@
         <v>589</v>
       </c>
       <c r="E699" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="F699" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -15568,7 +15562,7 @@
         <v>589</v>
       </c>
       <c r="F700" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
